--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1812202.386532951</v>
+        <v>-1776217.400095042</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.1802549</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11050482.12051625</v>
+        <v>11065630.41440298</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>301.7016376562969</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>126.5673678423655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>111.5079046245183</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>51.6437944122934</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,16 +896,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>79.90508515593419</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,10 +956,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>85.60227860199412</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.60516107055875</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>11.74349292783839</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>242.8646093945656</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>161.0734612100933</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>109.4519776932671</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1348,16 +1348,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>71.19919350121005</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>120.4034648723672</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313654</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800133</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633426</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>49.17722654850338</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1771,16 +1771,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>113.5770391806063</v>
       </c>
       <c r="F16" t="n">
-        <v>84.01976803536532</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.34965323462492</v>
+        <v>27.97358346682158</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>60.94899222869572</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>114.9577730479998</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>10.04027365719927</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2807,7 +2807,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>186.7535668023728</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>249.312874628822</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413112</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496634</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385524</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561368</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724684</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925387</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267642</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043295</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477349</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245956</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930497</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628598</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>147.983502531745</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730226</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591138</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856831</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277817</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432392</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742933144</v>
+        <v>4.967932742934334</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762358</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>227.1849416185852</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006782</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308239</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811741</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402853</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413112</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496634</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385524</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561368</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724684</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925387</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267642</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043295</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477349</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245956</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930497</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628598</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.983502531745</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730226</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591138</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856831</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277817</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432392</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934334</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762358</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>227.1849416185818</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006782</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308239</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811741</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402853</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934494</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>839.3189325489855</v>
+        <v>767.2744718100945</v>
       </c>
       <c r="C2" t="n">
-        <v>805.2168637728128</v>
+        <v>338.6927975473628</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>338.6927975473628</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>338.6927975473628</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4328,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4358,22 +4358,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1393.464329137293</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>1393.464329137293</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y2" t="n">
-        <v>1265.618503033893</v>
+        <v>789.5336382545983</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.7309021880288</v>
+        <v>564.4509961277927</v>
       </c>
       <c r="C4" t="n">
-        <v>312.1691906712537</v>
+        <v>391.8892846110176</v>
       </c>
       <c r="D4" t="n">
-        <v>312.1691906712537</v>
+        <v>226.0112918125403</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>226.0112918125403</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4516,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>957.542327540508</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X4" t="n">
-        <v>712.1505728739205</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.7309021880288</v>
+        <v>756.2696148467799</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>557.5168885550254</v>
+        <v>978.2394992608681</v>
       </c>
       <c r="C5" t="n">
-        <v>523.4148197788528</v>
+        <v>540.0970264442914</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>104.1872416187358</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>74.45290081743508</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>1112.37576914967</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1112.37576914967</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1738.870975579375</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2362.139698599286</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599286</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352343</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352343</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2450.581556124127</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2191.359253441144</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1828.742303374971</v>
       </c>
       <c r="W5" t="n">
-        <v>1074.529126782698</v>
+        <v>1423.886848786004</v>
       </c>
       <c r="X5" t="n">
-        <v>988.0621786998757</v>
+        <v>1408.784789405719</v>
       </c>
       <c r="Y5" t="n">
-        <v>983.8164590399332</v>
+        <v>1404.539069745776</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083439</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>677.1210816967518</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>677.1210816967518</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1087.370430316151</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1087.370430316151</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.7792737761694</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704687</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317367</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028723</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>830.1738967708334</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.657763951746</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.916567109391</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.585816335172</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488011</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352343</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352343</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2372.05239465034</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2126.172948228795</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1847.7399474819</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1560.784439352331</v>
       </c>
       <c r="W7" t="n">
-        <v>1131.794921203953</v>
+        <v>1560.784439352331</v>
       </c>
       <c r="X7" t="n">
-        <v>1131.794921203953</v>
+        <v>1548.922325283807</v>
       </c>
       <c r="Y7" t="n">
-        <v>1131.794921203953</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>548.3728793740404</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1217.893900270473</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1217.07884972191</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>797.936386301221</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>793.6906666412784</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>807.508379929692</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>634.9466684129169</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>469.0686756144395</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>299.3106718651768</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1151.45316161735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>879.4267572036415</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>807.508379929692</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.508379929692</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1903.383651232096</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1465.24117841552</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1465.24117841552</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>1031.466433573815</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F11" t="n">
-        <v>603.5990039830226</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2011726062865</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904685</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>80.16472174618686</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M11" t="n">
-        <v>492.0552635849266</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.093695193989</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764295</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597691</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556286</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309343</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.58421349318</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3924.58421349318</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U11" t="n">
-        <v>3924.58421349318</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V11" t="n">
-        <v>3561.967263427006</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W11" t="n">
-        <v>3157.11180883804</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2737.969345417351</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2329.683221717004</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637905</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>80.16472174618686</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>80.16472174618686</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L12" t="n">
-        <v>80.16472174618686</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M12" t="n">
-        <v>80.16472174618686</v>
+        <v>1625.543999329491</v>
       </c>
       <c r="N12" t="n">
-        <v>80.16472174618686</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O12" t="n">
-        <v>265.7696000193824</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1159.222882358068</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>986.6611708412933</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>820.783178042816</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>651.0251742935532</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>474.3181202553093</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>308.726845281137</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>168.8246709715115</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618686</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2675.406510354358</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2429.527063932814</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2382.834838972813</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>2095.879330843243</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1823.852926429535</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1578.461171762947</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1351.041501077055</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5279,49 +5279,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>2001.953320058587</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>3159.001155269137</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5367,16 +5367,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5419,13 +5419,13 @@
         <v>611.1385207805145</v>
       </c>
       <c r="E16" t="n">
-        <v>441.3805170312517</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,22 +5519,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5552,7 +5552,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5589,31 +5589,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5716,7 +5716,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,13 +5750,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>306.1208027766299</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
         <v>1463.168637987181</v>
@@ -5783,19 +5783,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1336.088111831086</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1368.288338304627</v>
       </c>
       <c r="L23" t="n">
-        <v>936.6111322289576</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987181</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6063,28 +6063,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>105.4320942910045</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,22 +6227,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N26" t="n">
-        <v>3572.656769371182</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="O26" t="n">
-        <v>3572.656769371182</v>
+        <v>3749.802995757414</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4578.11287059081</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>624.4588635952861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>454.7008598460233</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>277.9938058077795</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4025308336072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6464,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1832.79925530553</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2989.847090516081</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,28 +6537,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2040.550627261643</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1753.595119132073</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1481.568714718365</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1236.176960051778</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1008.757289365886</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,16 +6701,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6774,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030275</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.522463166641</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832281</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6889,7 +6889,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
         <v>1937.578667826198</v>
@@ -6898,7 +6898,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961501</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.295274783585</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197253</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.222633820533</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M35" t="n">
-        <v>2603.270469031084</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N35" t="n">
-        <v>3729.001452467531</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O35" t="n">
-        <v>4709.181119037837</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="P35" t="n">
-        <v>4709.181119037837</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387604</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.415497673519</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K36" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L36" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M36" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N36" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O36" t="n">
-        <v>400.344360043353</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P36" t="n">
-        <v>1220.067526522551</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
         <v>1760.806465154627</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936665</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080655</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463115</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882662</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M37" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290619</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281947</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947928</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231235</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C38" t="n">
         <v>2003.648111803009</v>
@@ -7163,46 +7163,46 @@
         <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197253</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>532.8213911287357</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>617.912758987136</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1774.960594197687</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2900.691577634134</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3880.87124420444</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4709.181119037836</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673519</v>
       </c>
       <c r="U38" t="n">
         <v>4364.592902403412</v>
@@ -7211,10 +7211,10 @@
         <v>4018.375659750115</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278741</v>
@@ -7245,31 +7245,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>823.9105205810888</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>823.9105205810888</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>823.9105205810888</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>823.9105205810888</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936665</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080655</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463115</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850154</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882662</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301956</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156102</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361802</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461494</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579742</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290615</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281947</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947928</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231235</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,46 +7415,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2025.454831298385</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>3182.502666508936</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>3182.502666508936</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>4162.682333079242</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1102.894748428211</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,7 +7585,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
         <v>2842.813139461497</v>
@@ -7594,25 +7594,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>444.7825334645009</v>
       </c>
       <c r="K44" t="n">
-        <v>1102.264656782435</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L44" t="n">
-        <v>2177.324623035295</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>3334.372458245845</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>3334.372458245845</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>123.6303768362754</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>123.6303768362754</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>1078.173425647379</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>1078.173425647379</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>1078.173425647379</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>1078.173425647379</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7792,22 +7792,22 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L46" t="n">
         <v>925.3347848856844</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,31 +8052,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,16 +8134,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,19 +8222,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>632.823440838086</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>629.5643666867795</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>414.3932814337363</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>213.6516890432713</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623634</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>280.9431591680332</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>23.01396396541122</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1076.103220029928</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8939,16 +8939,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>459.59787496626</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9237,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>361.6916308495304</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802861</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>839.1644551322519</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>531.8762684426497</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9875,25 +9875,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>833.0630236930783</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>369.4697759546607</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>239.9071053991105</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>465.5893289127825</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,16 +10124,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10361,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10422,22 +10422,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>79.849445185474</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10598,13 +10598,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>274.7698556067148</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328638</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10823,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>85.95087662464675</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
-        <v>733.6806231366375</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11063,10 +11063,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>664.9324729408804</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
-        <v>575.1952178320198</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11373,13 +11373,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>24.97103311195178</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>257.090662939326</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>121.8871176385874</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>26.40919388832771</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>277.6358946209776</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>165.8353881388487</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>175.9682474305294</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>54.48338453116385</v>
       </c>
       <c r="F16" t="n">
-        <v>90.92021546249602</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>160.7958207444079</v>
+        <v>197.1718905122112</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>223.1369608195781</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>84.63380825304883</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>128.4628789093294</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>128.46287890933</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>26.33579611060375</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>875368.6692334571</v>
+        <v>728188.454374437</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>955514.8597877106</v>
+        <v>966207.4802317045</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>955514.8597877106</v>
+        <v>967986.3618453779</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817961.7032858921</v>
+        <v>976023.6985354829</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976023.698535483</v>
+        <v>976023.6985354829</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>976023.6985354829</v>
+        <v>976023.6985354831</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>976023.698535483</v>
+        <v>976023.6985354829</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>976023.6985354831</v>
+        <v>976023.6985354829</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>989736.7489752892</v>
+        <v>989736.7489752893</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12242.14400372031</v>
+        <v>10109.09741156059</v>
       </c>
       <c r="C2" t="n">
         <v>13403.68299726021</v>
@@ -26320,7 +26320,7 @@
         <v>13403.68299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>11038.39301127409</v>
+        <v>13171.4396034338</v>
       </c>
       <c r="F2" t="n">
         <v>13171.43960343381</v>
@@ -26344,16 +26344,16 @@
         <v>13403.68299726022</v>
       </c>
       <c r="M2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
       <c r="N2" t="n">
         <v>13403.68299726022</v>
       </c>
       <c r="O2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.6829972602</v>
       </c>
       <c r="P2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246247</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106398</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725246</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471837</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338228</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143504</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978837</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341162</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173310.0976664684</v>
+        <v>124611.1870481615</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436015</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>56988.33653407505</v>
+        <v>68000.69828933285</v>
       </c>
       <c r="F4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>73343.05610596605</v>
+        <v>73343.05610596607</v>
       </c>
       <c r="M4" t="n">
-        <v>81349.24995213677</v>
+        <v>81349.2499521369</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213677</v>
+        <v>81349.24995213684</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213677</v>
+        <v>81349.24995213679</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.2499521368</v>
+        <v>81349.24995213679</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295562</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710201</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.2386057925</v>
@@ -26491,25 +26491,25 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-362684.0424596803</v>
+        <v>-316447.6369921031</v>
       </c>
       <c r="C6" t="n">
-        <v>-245849.9313864778</v>
+        <v>-288866.1210417594</v>
       </c>
       <c r="D6" t="n">
-        <v>-245849.9313864777</v>
+        <v>-228221.7860182353</v>
       </c>
       <c r="E6" t="n">
-        <v>-279382.5021224275</v>
+        <v>-314925.830852124</v>
       </c>
       <c r="F6" t="n">
-        <v>-211686.4029964099</v>
+        <v>-132570.7216310741</v>
       </c>
       <c r="G6" t="n">
-        <v>-132547.4972916914</v>
+        <v>-132570.7216310741</v>
       </c>
       <c r="H6" t="n">
-        <v>-132547.4972916915</v>
+        <v>-132570.7216310741</v>
       </c>
       <c r="I6" t="n">
-        <v>-132547.4972916915</v>
+        <v>-132570.7216310741</v>
       </c>
       <c r="J6" t="n">
-        <v>-243561.9626366816</v>
+        <v>-243585.1869760643</v>
       </c>
       <c r="K6" t="n">
-        <v>-132547.4972916915</v>
+        <v>-186239.0486944564</v>
       </c>
       <c r="L6" t="n">
-        <v>-152011.0999179644</v>
+        <v>-160791.2736084016</v>
       </c>
       <c r="M6" t="n">
-        <v>-272819.60307885</v>
+        <v>-281038.8824188184</v>
       </c>
       <c r="N6" t="n">
-        <v>-211110.3819543779</v>
+        <v>-143461.1816809663</v>
       </c>
       <c r="O6" t="n">
-        <v>-143461.1816809663</v>
+        <v>-143461.1816809662</v>
       </c>
       <c r="P6" t="n">
         <v>-143461.1816809663</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179816</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977105</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072314</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574097</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179816</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977105</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702095</v>
+        <v>552.0685893398656</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574095</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179816</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977105</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072314</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574097</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>174.4600240379739</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>332.581586677184</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>56.55251908725182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>123.2961890855679</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>137.9614696997576</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>329.3487601844883</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.2952714612385</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>231.1943441920833</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.1719653854931</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27916,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>65.48800580459424</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>171.7386436187116</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.498764579254604e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387435</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387475</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.2357103387485</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30879,7 +30879,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
         <v>16.23571033874737</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,10 +34708,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,31 +34772,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,16 +34854,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>632.823440838086</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>629.5643666867795</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,28 +35015,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>414.3932814337363</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>213.6516890432713</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,16 +35413,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623634</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>280.9431591680332</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>23.01396396541122</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,10 +35647,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>1076.103220029928</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35659,16 +35659,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,10 +35887,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>459.59787496626</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35975,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>361.6916308495304</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802861</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>839.1644551322519</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>531.8762684426497</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36595,25 +36595,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>833.0630236930783</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>369.4697759546607</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,10 +36832,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>239.9071053991105</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>465.5893289127825</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36844,16 +36844,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37078,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37306,10 +37306,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>79.849445185474</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,13 +37318,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>274.7698556067148</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328638</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778282</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033062</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>85.95087662464675</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
-        <v>733.6806231366375</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778282</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033056</v>
+        <v>480.3608287033062</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O40" t="n">
         <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552505</v>
       </c>
       <c r="Q40" t="n">
         <v>186.1274021209015</v>
@@ -37783,10 +37783,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>664.9324729408804</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209024</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
-        <v>575.1952178320198</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38093,13 +38093,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>24.97103311195178</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38175,10 +38175,10 @@
         <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348443</v>
+        <v>293.7695028348442</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M46" t="n">
         <v>480.360828703306</v>
